--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il16-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il16-Cd4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.267595333333334</v>
+        <v>3.748362666666667</v>
       </c>
       <c r="H2">
-        <v>24.802786</v>
+        <v>11.245088</v>
       </c>
       <c r="I2">
-        <v>0.3656664502891759</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="J2">
-        <v>0.3656664502891758</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.539832</v>
+        <v>0.06686833333333334</v>
       </c>
       <c r="N2">
-        <v>1.619496</v>
+        <v>0.200605</v>
       </c>
       <c r="O2">
-        <v>0.3224687287194008</v>
+        <v>0.05567274787007094</v>
       </c>
       <c r="P2">
-        <v>0.3224687287194007</v>
+        <v>0.05567274787007093</v>
       </c>
       <c r="Q2">
-        <v>4.463112523984</v>
+        <v>0.2506467642488889</v>
       </c>
       <c r="R2">
-        <v>40.168012715856</v>
+        <v>2.25582087824</v>
       </c>
       <c r="S2">
-        <v>0.1179159953600865</v>
+        <v>0.01153547162652329</v>
       </c>
       <c r="T2">
-        <v>0.1179159953600865</v>
+        <v>0.01153547162652329</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.267595333333334</v>
+        <v>3.748362666666667</v>
       </c>
       <c r="H3">
-        <v>24.802786</v>
+        <v>11.245088</v>
       </c>
       <c r="I3">
-        <v>0.3656664502891759</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="J3">
-        <v>0.3656664502891758</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.102758</v>
       </c>
       <c r="O3">
-        <v>0.6178109904463799</v>
+        <v>0.8610905203551533</v>
       </c>
       <c r="P3">
-        <v>0.6178109904463799</v>
+        <v>0.8610905203551533</v>
       </c>
       <c r="Q3">
-        <v>8.550782520420888</v>
+        <v>3.876754083633777</v>
       </c>
       <c r="R3">
-        <v>76.95704268378799</v>
+        <v>34.890786752704</v>
       </c>
       <c r="S3">
-        <v>0.2259127518261677</v>
+        <v>0.1784191663865214</v>
       </c>
       <c r="T3">
-        <v>0.2259127518261677</v>
+        <v>0.1784191663865215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.267595333333334</v>
+        <v>3.748362666666667</v>
       </c>
       <c r="H4">
-        <v>24.802786</v>
+        <v>11.245088</v>
       </c>
       <c r="I4">
-        <v>0.3656664502891759</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="J4">
-        <v>0.3656664502891758</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.299926</v>
       </c>
       <c r="O4">
-        <v>0.05972028083421942</v>
+        <v>0.08323673177477579</v>
       </c>
       <c r="P4">
-        <v>0.05972028083421941</v>
+        <v>0.08323673177477578</v>
       </c>
       <c r="Q4">
-        <v>0.8265555993151114</v>
+        <v>0.3747438070542223</v>
       </c>
       <c r="R4">
-        <v>7.439000393836001</v>
+        <v>3.372694263488</v>
       </c>
       <c r="S4">
-        <v>0.02183770310292172</v>
+        <v>0.01724676784255938</v>
       </c>
       <c r="T4">
-        <v>0.02183770310292171</v>
+        <v>0.01724676784255938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>33.324913</v>
       </c>
       <c r="I5">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114622</v>
       </c>
       <c r="J5">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114623</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.539832</v>
+        <v>0.06686833333333334</v>
       </c>
       <c r="N5">
-        <v>1.619496</v>
+        <v>0.200605</v>
       </c>
       <c r="O5">
-        <v>0.3224687287194008</v>
+        <v>0.05567274787007094</v>
       </c>
       <c r="P5">
-        <v>0.3224687287194007</v>
+        <v>0.05567274787007093</v>
       </c>
       <c r="Q5">
-        <v>5.996618144871999</v>
+        <v>0.7427937969294444</v>
       </c>
       <c r="R5">
-        <v>53.96956330384799</v>
+        <v>6.685144172364999</v>
       </c>
       <c r="S5">
-        <v>0.1584314071283478</v>
+        <v>0.03418546732296422</v>
       </c>
       <c r="T5">
-        <v>0.1584314071283478</v>
+        <v>0.03418546732296422</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>33.324913</v>
       </c>
       <c r="I6">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114622</v>
       </c>
       <c r="J6">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114623</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.102758</v>
       </c>
       <c r="O6">
-        <v>0.6178109904463799</v>
+        <v>0.8610905203551533</v>
       </c>
       <c r="P6">
-        <v>0.6178109904463799</v>
+        <v>0.8610905203551533</v>
       </c>
       <c r="Q6">
         <v>11.48879337889488</v>
@@ -818,10 +818,10 @@
         <v>103.399140410054</v>
       </c>
       <c r="S6">
-        <v>0.3035353689782118</v>
+        <v>0.5287467023257933</v>
       </c>
       <c r="T6">
-        <v>0.3035353689782118</v>
+        <v>0.5287467023257935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>33.324913</v>
       </c>
       <c r="I7">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114622</v>
       </c>
       <c r="J7">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114623</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.299926</v>
       </c>
       <c r="O7">
-        <v>0.05972028083421942</v>
+        <v>0.08323673177477579</v>
       </c>
       <c r="P7">
-        <v>0.05972028083421941</v>
+        <v>0.08323673177477578</v>
       </c>
       <c r="Q7">
         <v>1.110556428493111</v>
@@ -880,10 +880,10 @@
         <v>9.995007856437999</v>
       </c>
       <c r="S7">
-        <v>0.02934104080181541</v>
+        <v>0.05111094176270465</v>
       </c>
       <c r="T7">
-        <v>0.0293410408018154</v>
+        <v>0.05111094176270465</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.233763666666666</v>
+        <v>3.233763666666667</v>
       </c>
       <c r="H8">
-        <v>9.701290999999999</v>
+        <v>9.701291000000001</v>
       </c>
       <c r="I8">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="J8">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.539832</v>
+        <v>0.06686833333333334</v>
       </c>
       <c r="N8">
-        <v>1.619496</v>
+        <v>0.200605</v>
       </c>
       <c r="O8">
-        <v>0.3224687287194008</v>
+        <v>0.05567274787007094</v>
       </c>
       <c r="P8">
-        <v>0.3224687287194007</v>
+        <v>0.05567274787007093</v>
       </c>
       <c r="Q8">
-        <v>1.745689107704</v>
+        <v>0.2162363867838889</v>
       </c>
       <c r="R8">
-        <v>15.711201969336</v>
+        <v>1.946127481055</v>
       </c>
       <c r="S8">
-        <v>0.04612132623096651</v>
+        <v>0.009951808920583435</v>
       </c>
       <c r="T8">
-        <v>0.0461213262309665</v>
+        <v>0.009951808920583437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.233763666666666</v>
+        <v>3.233763666666667</v>
       </c>
       <c r="H9">
-        <v>9.701290999999999</v>
+        <v>9.701291000000001</v>
       </c>
       <c r="I9">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="J9">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.102758</v>
       </c>
       <c r="O9">
-        <v>0.6178109904463799</v>
+        <v>0.8610905203551533</v>
       </c>
       <c r="P9">
-        <v>0.6178109904463799</v>
+        <v>0.8610905203551533</v>
       </c>
       <c r="Q9">
         <v>3.344528695619777</v>
       </c>
       <c r="R9">
-        <v>30.10075826057799</v>
+        <v>30.100758260578</v>
       </c>
       <c r="S9">
-        <v>0.08836286964200045</v>
+        <v>0.1539246516428385</v>
       </c>
       <c r="T9">
-        <v>0.08836286964200045</v>
+        <v>0.1539246516428385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.233763666666666</v>
+        <v>3.233763666666667</v>
       </c>
       <c r="H10">
-        <v>9.701290999999999</v>
+        <v>9.701291000000001</v>
       </c>
       <c r="I10">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="J10">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,22 +1054,22 @@
         <v>0.299926</v>
       </c>
       <c r="O10">
-        <v>0.05972028083421942</v>
+        <v>0.08323673177477579</v>
       </c>
       <c r="P10">
-        <v>0.05972028083421941</v>
+        <v>0.08323673177477578</v>
       </c>
       <c r="Q10">
-        <v>0.3232966004962222</v>
+        <v>0.3232966004962223</v>
       </c>
       <c r="R10">
-        <v>2.909669404466</v>
+        <v>2.909669404466001</v>
       </c>
       <c r="S10">
-        <v>0.008541536929482297</v>
+        <v>0.01487902216951176</v>
       </c>
       <c r="T10">
-        <v>0.008541536929482296</v>
+        <v>0.01487902216951177</v>
       </c>
     </row>
   </sheetData>
